--- a/data/epp-23-data.xlsx
+++ b/data/epp-23-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089C9A6-D4DB-B249-9118-9FA1AE1D9A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0F2392-CF91-744E-AA13-5A2E6C013D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>errorCode</t>
   </si>
@@ -111,57 +111,61 @@
     <t>name</t>
   </si>
   <si>
+    <t>!.invalid</t>
+  </si>
+  <si>
+    <t>createParentFirst</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Whether the superordinate domain name should be created before the subordinate host name is created (if it does not already exist)</t>
+  </si>
+  <si>
+    <t>Data Provider for epp-23</t>
+  </si>
+  <si>
+    <t>The new hostname for the object</t>
+  </si>
+  <si>
+    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_INVALID_HOSTNAME</t>
+  </si>
+  <si>
+    <t>EPP_HOST_RENAME_SERVER_REJECTS_OUT_OF_BAILIWICK_NAME</t>
+  </si>
+  <si>
+    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_RENAME_TO_NONEXISTENT_DOMAIN</t>
+  </si>
+  <si>
+    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_RENAME_TO_ANOTHER_REGISTRARS_DOMAIN</t>
+  </si>
+  <si>
+    <t>EPP_HOST_RENAME_SERVER_UNEXPECTEDLY_REJECTS_RENAME</t>
+  </si>
+  <si>
+    <t>{"ns1.epp-23.rst." &amp; RANDCHARS(18) &amp; ".icann"}</t>
+  </si>
+  <si>
+    <t>{"ns1.epp-23.rst." &amp; RANDCHARS(18) &amp; "." &amp; $TLD}</t>
+  </si>
+  <si>
+    <t>{"ns1.epp-23.rst." &amp; RANDCHARS(18) &amp; "." &amp; $RESERVEDNAME}</t>
+  </si>
+  <si>
+    <t>{PREVIOUS}</t>
+  </si>
+  <si>
     <t xml:space="preserve">* Values in {parentheses} are not literal values, they indicate that an appropriate value should be computed.
     * A value of `{EMPTY}` indicates an empty string.
+    * A value of `{PREVIOUS}` indicates that the value computed from the same column in the preceding row should be used.
 </t>
-  </si>
-  <si>
-    <t>!.invalid</t>
-  </si>
-  <si>
-    <t>createParentFirst</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Whether the superordinate domain name should be created before the subordinate host name is created (if it does not already exist)</t>
-  </si>
-  <si>
-    <t>Data Provider for epp-23</t>
-  </si>
-  <si>
-    <t>The new hostname for the object</t>
-  </si>
-  <si>
-    <t>ns1.epp-23.icann</t>
-  </si>
-  <si>
-    <t>{"ns1.epp-23." &amp; $RESERVEDNAME}</t>
-  </si>
-  <si>
-    <t>{"ns1.epp-23." &amp; RANDCHARS(64) &amp; "." &amp; $TLD}</t>
-  </si>
-  <si>
-    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_INVALID_HOSTNAME</t>
-  </si>
-  <si>
-    <t>EPP_HOST_RENAME_SERVER_REJECTS_OUT_OF_BAILIWICK_NAME</t>
-  </si>
-  <si>
-    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_RENAME_TO_NONEXISTENT_DOMAIN</t>
-  </si>
-  <si>
-    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_RENAME_TO_ANOTHER_REGISTRARS_DOMAIN</t>
-  </si>
-  <si>
-    <t>EPP_HOST_RENAME_SERVER_UNEXPECTEDLY_REJECTS_RENAME</t>
   </si>
 </sst>
 </file>
@@ -275,16 +279,11 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -310,11 +309,16 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -396,9 +400,9 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4AE738EA-0F6E-7D4F-8E30-1F60F72D5773}" name="name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2A3D0A40-AE52-604E-B590-3D9F63347387}" name="createParentFirst" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{2A3D0A40-AE52-604E-B590-3D9F63347387}" name="createParentFirst" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -723,12 +727,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="92.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -737,15 +743,15 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -776,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -787,10 +793,10 @@
     </row>
     <row r="8" spans="2:5" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -804,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
@@ -815,72 +821,72 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-23-data.xlsx
+++ b/data/epp-23-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0F2392-CF91-744E-AA13-5A2E6C013D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326ECF58-022B-5F40-BF0B-59ABAC2EC7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -60,6 +60,66 @@
   </si>
   <si>
     <t>Error code if expected result is not produced</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>!.invalid</t>
+  </si>
+  <si>
+    <t>createParentFirst</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Whether the superordinate domain name should be created before the subordinate host name is created (if it does not already exist)</t>
+  </si>
+  <si>
+    <t>Data Provider for epp-23</t>
+  </si>
+  <si>
+    <t>The new hostname for the object</t>
+  </si>
+  <si>
+    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_INVALID_HOSTNAME</t>
+  </si>
+  <si>
+    <t>EPP_HOST_RENAME_SERVER_REJECTS_OUT_OF_BAILIWICK_NAME</t>
+  </si>
+  <si>
+    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_RENAME_TO_NONEXISTENT_DOMAIN</t>
+  </si>
+  <si>
+    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_RENAME_TO_ANOTHER_REGISTRARS_DOMAIN</t>
+  </si>
+  <si>
+    <t>EPP_HOST_RENAME_SERVER_UNEXPECTEDLY_REJECTS_RENAME</t>
+  </si>
+  <si>
+    <t>{"ns1.epp-23.rst." &amp; RANDCHARS(18) &amp; ".icann"}</t>
+  </si>
+  <si>
+    <t>{"ns1.epp-23.rst." &amp; RANDCHARS(18) &amp; "." &amp; $TLD}</t>
+  </si>
+  <si>
+    <t>{"ns1.epp-23.rst." &amp; RANDCHARS(18) &amp; "." &amp; $RESERVEDNAME}</t>
+  </si>
+  <si>
+    <t>{PREVIOUS}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Values in {parentheses} are not literal values, they indicate that an appropriate value should be computed.
+    * A value of `{EMPTY}` indicates an empty string.
+    * A value of `{PREVIOUS}` indicates that the value computed from the same column in the preceding row should be used.
+</t>
   </si>
   <si>
     <r>
@@ -104,68 +164,9 @@
       </rPr>
       <t xml:space="preserve"> have the "Text" type.
 * Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
-* This means that all cells in the first row MUST be populated.</t>
+* This means that all cells in the first row MUST be populated.
+* IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
     </r>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>!.invalid</t>
-  </si>
-  <si>
-    <t>createParentFirst</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Whether the superordinate domain name should be created before the subordinate host name is created (if it does not already exist)</t>
-  </si>
-  <si>
-    <t>Data Provider for epp-23</t>
-  </si>
-  <si>
-    <t>The new hostname for the object</t>
-  </si>
-  <si>
-    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_INVALID_HOSTNAME</t>
-  </si>
-  <si>
-    <t>EPP_HOST_RENAME_SERVER_REJECTS_OUT_OF_BAILIWICK_NAME</t>
-  </si>
-  <si>
-    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_RENAME_TO_NONEXISTENT_DOMAIN</t>
-  </si>
-  <si>
-    <t>EPP_HOST_RENAME_SERVER_ACCEPTS_RENAME_TO_ANOTHER_REGISTRARS_DOMAIN</t>
-  </si>
-  <si>
-    <t>EPP_HOST_RENAME_SERVER_UNEXPECTEDLY_REJECTS_RENAME</t>
-  </si>
-  <si>
-    <t>{"ns1.epp-23.rst." &amp; RANDCHARS(18) &amp; ".icann"}</t>
-  </si>
-  <si>
-    <t>{"ns1.epp-23.rst." &amp; RANDCHARS(18) &amp; "." &amp; $TLD}</t>
-  </si>
-  <si>
-    <t>{"ns1.epp-23.rst." &amp; RANDCHARS(18) &amp; "." &amp; $RESERVEDNAME}</t>
-  </si>
-  <si>
-    <t>{PREVIOUS}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Values in {parentheses} are not literal values, they indicate that an appropriate value should be computed.
-    * A value of `{EMPTY}` indicates an empty string.
-    * A value of `{PREVIOUS}` indicates that the value computed from the same column in the preceding row should be used.
-</t>
   </si>
 </sst>
 </file>
@@ -728,7 +729,7 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,7 +744,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -751,7 +752,7 @@
     </row>
     <row r="3" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -763,9 +764,9 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -779,10 +780,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -793,10 +794,10 @@
     </row>
     <row r="8" spans="2:5" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -810,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
@@ -821,72 +822,72 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-23-data.xlsx
+++ b/data/epp-23-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326ECF58-022B-5F40-BF0B-59ABAC2EC7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512DCF74-E46C-3345-89B9-7337E6819237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="TableNotes">Sheet1!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -90,9 +89,6 @@
   </si>
   <si>
     <t>EPP_HOST_RENAME_SERVER_ACCEPTS_INVALID_HOSTNAME</t>
-  </si>
-  <si>
-    <t>EPP_HOST_RENAME_SERVER_REJECTS_OUT_OF_BAILIWICK_NAME</t>
   </si>
   <si>
     <t>EPP_HOST_RENAME_SERVER_ACCEPTS_RENAME_TO_NONEXISTENT_DOMAIN</t>
@@ -167,6 +163,9 @@
 * This means that all cells in the first row MUST be populated.
 * IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
     </r>
+  </si>
+  <si>
+    <t>EPP_HOST_RENAME_SERVER_REJECTS_EXTERNAL_NAME</t>
   </si>
 </sst>
 </file>
@@ -729,7 +728,7 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +751,7 @@
     </row>
     <row r="3" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -766,7 +765,7 @@
     </row>
     <row r="5" spans="2:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -836,7 +835,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -845,12 +844,12 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -859,12 +858,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -873,12 +872,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -887,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
